--- a/Report_Card_Template.xlsx
+++ b/Report_Card_Template.xlsx
@@ -208,7 +208,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
+  <style val="1"/>
   <chart>
     <title>
       <tx>
@@ -219,13 +219,23 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>ACADEMIC PERFORMANCE (THIRD TERM)</a:t>
+              <a:t>Academic Performance (Third Term)</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
     </title>
     <plotArea>
+      <layout>
+        <manualLayout>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0"/>
+          <y val="0.05"/>
+          <w val="0.9"/>
+          <h val="0.9"/>
+        </manualLayout>
+      </layout>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
@@ -234,7 +244,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'John Doe'!F8</f>
+              <f>'John Doe'!F9</f>
             </strRef>
           </tx>
           <spPr>
@@ -249,13 +259,10 @@
           </cat>
           <val>
             <numRef>
-              <f>'John Doe'!$F$9:$F$22</f>
+              <f>'John Doe'!$F$10:$F$22</f>
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -281,10 +288,11 @@
             </rich>
           </tx>
         </title>
-        <majorTickMark val="none"/>
+        <majorTickMark val="out"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
+        <tickLblSkip val="1"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -302,7 +310,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Scores</a:t>
+                  <a:t>Total Score</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -328,7 +336,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3240000" cy="3240000"/>
+    <ext cx="4320000" cy="3240000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -668,7 +676,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="40.71" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
@@ -789,14 +797,14 @@
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Academic Performance</t>
+          <t>ACADEMIC PERFORMANCE</t>
         </is>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>Subject</t>
+          <t>SUBJECT</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
@@ -816,49 +824,49 @@
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>Exam</t>
+          <t>EXAM</t>
         </is>
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>1st Term</t>
+          <t>1ST TERM</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2nd Term</t>
+          <t>2ND TERM</t>
         </is>
       </c>
       <c r="I8" s="6" t="inlineStr">
         <is>
-          <t>3rd Term Total</t>
+          <t>3RD TERM TOTAL</t>
         </is>
       </c>
       <c r="J8" s="6" t="inlineStr">
         <is>
-          <t>Grade</t>
+          <t>GRADE</t>
         </is>
       </c>
       <c r="K8" s="6" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>POSITION</t>
         </is>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>REMARK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>MATHEMATICS</t>
         </is>
       </c>
       <c r="B9" s="7" t="n">
@@ -900,7 +908,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>ENGLISH</t>
         </is>
       </c>
       <c r="B10" s="7" t="n">
@@ -942,7 +950,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>Biology</t>
+          <t>BIOLOGY</t>
         </is>
       </c>
       <c r="B11" s="7" t="n">
@@ -984,7 +992,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>PHYSICS</t>
         </is>
       </c>
       <c r="B12" s="7" t="n">
@@ -1026,7 +1034,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>Chemistry</t>
+          <t>CHEMISTRY</t>
         </is>
       </c>
       <c r="B13" s="7" t="n">
@@ -1068,7 +1076,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Geography</t>
+          <t>GEOGRAPHY</t>
         </is>
       </c>
       <c r="B14" s="7" t="n">
@@ -1110,7 +1118,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>ECONOMICS</t>
         </is>
       </c>
       <c r="B15" s="7" t="n">
@@ -1152,7 +1160,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="B16" s="7" t="n">
@@ -1194,7 +1202,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>Civic Education</t>
+          <t>CIVIC EDUCATION</t>
         </is>
       </c>
       <c r="B17" s="7" t="n">
@@ -1236,7 +1244,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>HISTORY</t>
         </is>
       </c>
       <c r="B18" s="7" t="n">
@@ -1278,7 +1286,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>COMPUTER</t>
         </is>
       </c>
       <c r="B19" s="7" t="n">
@@ -1320,7 +1328,7 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>Fine Arts</t>
+          <t>FINE ARTS</t>
         </is>
       </c>
       <c r="B20" s="7" t="n">
@@ -1362,7 +1370,7 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>FRENCH</t>
         </is>
       </c>
       <c r="B21" s="7" t="n">
@@ -1404,7 +1412,7 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>Physical Education</t>
+          <t>PHYSICAL EDUCATION</t>
         </is>
       </c>
       <c r="B22" s="7" t="n">
@@ -1446,13 +1454,13 @@
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>SUMMARY</t>
         </is>
       </c>
       <c r="B24" s="9" t="n"/>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>Effort</t>
+          <t>EFFORT</t>
         </is>
       </c>
       <c r="E24" s="4" t="n">
@@ -1480,7 +1488,7 @@
     <row r="25">
       <c r="A25" s="10" t="inlineStr">
         <is>
-          <t>Total Score</t>
+          <t>TOTAL SCORE</t>
         </is>
       </c>
       <c r="B25" s="10">
@@ -1489,7 +1497,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>Aesthetic Appreciation</t>
+          <t>AESTHETIC APPRECIATION</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1524,7 +1532,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>ATTENDANCE</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1560,7 +1568,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>Creativity</t>
+          <t>CREATIVITY</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1588,7 +1596,7 @@
       <c r="B28" s="10" t="n"/>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>Honesty</t>
+          <t>HONESTY</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -1614,7 +1622,7 @@
     <row r="29">
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>Initiative</t>
+          <t>INITIATIVE</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1640,7 +1648,7 @@
     <row r="30">
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>LEADERSHIP</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
@@ -1666,7 +1674,7 @@
     <row r="31">
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>Neatness</t>
+          <t>NEATNESS</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
@@ -1682,7 +1690,7 @@
     <row r="32">
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>Obedience</t>
+          <t>OBEDIENCE</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
@@ -1698,7 +1706,7 @@
     <row r="33">
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>Perserverance</t>
+          <t>PERSERVERANCE</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
@@ -1714,7 +1722,7 @@
     <row r="34">
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>Politeness</t>
+          <t>POLITENESS</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
@@ -1730,7 +1738,7 @@
     <row r="35">
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>Self Control</t>
+          <t>SELF CONTROL</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
@@ -1746,7 +1754,7 @@
     <row r="36">
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>Sense Of Responsibility</t>
+          <t>SENSE OF RESPONSIBILITY</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
@@ -1762,7 +1770,7 @@
     <row r="37">
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>Sociability</t>
+          <t>SOCIABILITY</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
@@ -1778,7 +1786,7 @@
     <row r="38">
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>Spirit Of Coordination</t>
+          <t>SPIRIT OF COORDINATION</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">

--- a/Report_Card_Template.xlsx
+++ b/Report_Card_Template.xlsx
@@ -208,7 +208,6 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
   <chart>
     <title>
       <tx>
@@ -244,7 +243,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'John Doe'!F9</f>
+              <f>'John Doe'!F8</f>
             </strRef>
           </tx>
           <spPr>
@@ -259,7 +258,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'John Doe'!$F$10:$F$22</f>
+              <f>'John Doe'!$F$9:$F$22</f>
             </numRef>
           </val>
         </ser>
@@ -300,7 +299,6 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
-        <majorGridlines/>
         <title>
           <tx>
             <rich>

--- a/Report_Card_Template.xlsx
+++ b/Report_Card_Template.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="John Doe" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="JOHN DOE1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="JANE SMITH1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -103,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -129,6 +130,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -208,6 +212,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="1"/>
   <chart>
     <title>
       <tx>
@@ -243,7 +248,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'John Doe'!F8</f>
+              <f>'JOHN DOE1'!F8</f>
             </strRef>
           </tx>
           <spPr>
@@ -253,12 +258,132 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'John Doe'!$A$9:$A$22</f>
+              <f>'JOHN DOE1'!$A$9:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'John Doe'!$F$9:$F$22</f>
+              <f>'JOHN DOE1'!$F$9:$F$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Subjects</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+        <tickLblSkip val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Score</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="1"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Academic Performance (Third Term)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0"/>
+          <y val="0.05"/>
+          <w val="0.9"/>
+          <h val="0.9"/>
+        </manualLayout>
+      </layout>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'JANE SMITH1'!F8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'JANE SMITH1'!$A$9:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'JANE SMITH1'!$F$9:$F$20</f>
             </numRef>
           </val>
         </ser>
@@ -331,7 +456,59 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>30</row>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4320000" cy="3240000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="666750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4320000" cy="3240000"/>
@@ -666,7 +843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,12 +854,12 @@
     <col width="40.71" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
@@ -751,7 +928,7 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -760,10 +937,8 @@
         </is>
       </c>
       <c r="H4" s="5" t="n"/>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="I4" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="5" t="n"/>
@@ -777,7 +952,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>01-09-2024</t>
+          <t>24-07-2025</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -807,27 +982,27 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>CA1</t>
+          <t>CA1 (20%)</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>CA2</t>
+          <t>CA2 (20%)</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>CA3</t>
+          <t>CA3 (20%)</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>EXAM</t>
+          <t>EXAM (40%)</t>
         </is>
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>3RD TERM TOTAL</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
@@ -842,7 +1017,7 @@
       </c>
       <c r="I8" s="6" t="inlineStr">
         <is>
-          <t>3RD TERM TOTAL</t>
+          <t>CUMULATIVE TOTAL</t>
         </is>
       </c>
       <c r="J8" s="6" t="inlineStr">
@@ -880,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <f>SUM(B9:E9)</f>
+        <f>B9+C9+D9+E9</f>
         <v/>
       </c>
       <c r="G9" s="7" t="n">
@@ -890,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <f>F9</f>
+        <f>F9+G9+H9</f>
         <v/>
       </c>
       <c r="J9" s="7">
@@ -906,7 +1081,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
+          <t>ENGLISH LANGUAGE</t>
         </is>
       </c>
       <c r="B10" s="7" t="n">
@@ -922,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <f>SUM(B10:E10)</f>
+        <f>B10+C10+D10+E10</f>
         <v/>
       </c>
       <c r="G10" s="7" t="n">
@@ -932,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <f>F10</f>
+        <f>F10+G10+H10</f>
         <v/>
       </c>
       <c r="J10" s="7">
@@ -948,7 +1123,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>BIOLOGY</t>
+          <t>PHONICS</t>
         </is>
       </c>
       <c r="B11" s="7" t="n">
@@ -964,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="7">
-        <f>SUM(B11:E11)</f>
+        <f>B11+C11+D11+E11</f>
         <v/>
       </c>
       <c r="G11" s="7" t="n">
@@ -974,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
-        <f>F11</f>
+        <f>F11+G11+H11</f>
         <v/>
       </c>
       <c r="J11" s="7">
@@ -990,7 +1165,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>BASIC SCIENCE &amp; TECHNOLOGY</t>
         </is>
       </c>
       <c r="B12" s="7" t="n">
@@ -1006,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <f>SUM(B12:E12)</f>
+        <f>B12+C12+D12+E12</f>
         <v/>
       </c>
       <c r="G12" s="7" t="n">
@@ -1016,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <f>F12</f>
+        <f>F12+G12+H12</f>
         <v/>
       </c>
       <c r="J12" s="7">
@@ -1032,7 +1207,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>CHEMISTRY</t>
+          <t>NATIONAL VALUES</t>
         </is>
       </c>
       <c r="B13" s="7" t="n">
@@ -1048,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <f>SUM(B13:E13)</f>
+        <f>B13+C13+D13+E13</f>
         <v/>
       </c>
       <c r="G13" s="7" t="n">
@@ -1058,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <f>F13</f>
+        <f>F13+G13+H13</f>
         <v/>
       </c>
       <c r="J13" s="7">
@@ -1074,7 +1249,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GEOGRAPHY</t>
+          <t>PRE-VOCATIONAL STUDIES</t>
         </is>
       </c>
       <c r="B14" s="7" t="n">
@@ -1090,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <f>SUM(B14:E14)</f>
+        <f>B14+C14+D14+E14</f>
         <v/>
       </c>
       <c r="G14" s="7" t="n">
@@ -1100,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <f>F14</f>
+        <f>F14+G14+H14</f>
         <v/>
       </c>
       <c r="J14" s="7">
@@ -1116,7 +1291,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>ECONOMICS</t>
+          <t>RELIGIOUS STUDIES (C.R.S/I.R.S)</t>
         </is>
       </c>
       <c r="B15" s="7" t="n">
@@ -1132,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f>SUM(B15:E15)</f>
+        <f>B15+C15+D15+E15</f>
         <v/>
       </c>
       <c r="G15" s="7" t="n">
@@ -1142,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <f>F15</f>
+        <f>F15+G15+H15</f>
         <v/>
       </c>
       <c r="J15" s="7">
@@ -1158,7 +1333,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>C.C.A</t>
         </is>
       </c>
       <c r="B16" s="7" t="n">
@@ -1174,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <f>SUM(B16:E16)</f>
+        <f>B16+C16+D16+E16</f>
         <v/>
       </c>
       <c r="G16" s="7" t="n">
@@ -1184,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <f>F16</f>
+        <f>F16+G16+H16</f>
         <v/>
       </c>
       <c r="J16" s="7">
@@ -1200,7 +1375,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>CIVIC EDUCATION</t>
+          <t>HISTORY</t>
         </is>
       </c>
       <c r="B17" s="7" t="n">
@@ -1216,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f>SUM(B17:E17)</f>
+        <f>B17+C17+D17+E17</f>
         <v/>
       </c>
       <c r="G17" s="7" t="n">
@@ -1226,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <f>F17</f>
+        <f>F17+G17+H17</f>
         <v/>
       </c>
       <c r="J17" s="7">
@@ -1242,7 +1417,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>HISTORY</t>
+          <t>NIGERIAN LANGUAGE (HAUSA)</t>
         </is>
       </c>
       <c r="B18" s="7" t="n">
@@ -1258,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <f>SUM(B18:E18)</f>
+        <f>B18+C18+D18+E18</f>
         <v/>
       </c>
       <c r="G18" s="7" t="n">
@@ -1268,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <f>F18</f>
+        <f>F18+G18+H18</f>
         <v/>
       </c>
       <c r="J18" s="7">
@@ -1284,7 +1459,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>COMPUTER</t>
+          <t>FRENCH</t>
         </is>
       </c>
       <c r="B19" s="7" t="n">
@@ -1300,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <f>SUM(B19:E19)</f>
+        <f>B19+C19+D19+E19</f>
         <v/>
       </c>
       <c r="G19" s="7" t="n">
@@ -1310,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <f>F19</f>
+        <f>F19+G19+H19</f>
         <v/>
       </c>
       <c r="J19" s="7">
@@ -1326,7 +1501,7 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>FINE ARTS</t>
+          <t>HAND WRITING</t>
         </is>
       </c>
       <c r="B20" s="7" t="n">
@@ -1342,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="7">
-        <f>SUM(B20:E20)</f>
+        <f>B20+C20+D20+E20</f>
         <v/>
       </c>
       <c r="G20" s="7" t="n">
@@ -1352,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <f>F20</f>
+        <f>F20+G20+H20</f>
         <v/>
       </c>
       <c r="J20" s="7">
@@ -1365,137 +1540,123 @@
         <v/>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>FRENCH</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <f>SUM(B21:E21)</f>
-        <v/>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <f>F21</f>
-        <v/>
-      </c>
-      <c r="J21" s="7">
-        <f>IF(F21&gt;=75,"A",IF(F21&gt;=60,"B",IF(F21&gt;=50,"C",IF(F21&gt;=45,"D",IF(F21&gt;=40,"E","F")))))</f>
-        <v/>
-      </c>
-      <c r="K21" s="7" t="inlineStr"/>
-      <c r="L21" s="7">
-        <f>IF(J21="A","Excellent",IF(J21="B","Very Good",IF(J21="C","Good",IF(J21="D","Fair",IF(J21="E","Weak","Poor")))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>PHYSICAL EDUCATION</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <f>SUM(B22:E22)</f>
-        <v/>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <f>F22</f>
-        <v/>
-      </c>
-      <c r="J22" s="7">
-        <f>IF(F22&gt;=75,"A",IF(F22&gt;=60,"B",IF(F22&gt;=50,"C",IF(F22&gt;=45,"D",IF(F22&gt;=40,"E","F")))))</f>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="inlineStr"/>
-      <c r="L22" s="7">
-        <f>IF(J22="A","Excellent",IF(J22="B","Very Good",IF(J22="C","Good",IF(J22="D","Fair",IF(J22="E","Weak","Poor")))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="8" t="inlineStr">
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>SUMMARY</t>
         </is>
       </c>
-      <c r="B24" s="9" t="n"/>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="B22" s="9" t="n"/>
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>EFFORT</t>
         </is>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E22" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G22" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H22" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I22" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="K24" s="6" t="inlineStr">
+      <c r="K22" s="6" t="inlineStr">
         <is>
           <t>Grading Scale (Legend)</t>
         </is>
       </c>
-      <c r="L24" s="9" t="n"/>
+      <c r="L22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="inlineStr">
+        <is>
+          <t>TOTAL SCORE</t>
+        </is>
+      </c>
+      <c r="B23" s="10">
+        <f>SUM(F9:F20)</f>
+        <v/>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>AESTHETIC APPRECIATION</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
+      <c r="H23" s="5" t="n"/>
+      <c r="I23" s="5" t="n"/>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
+        <is>
+          <t>75 - 100 (Excellent)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>AVERAGE SCORE</t>
+        </is>
+      </c>
+      <c r="B24" s="10">
+        <f>AVERAGE(F9:F20)</f>
+        <v/>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>ATTENDANCE</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="5" t="n"/>
+      <c r="I24" s="5" t="n"/>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L24" s="5" t="inlineStr">
+        <is>
+          <t>60 - 74 (Very Good)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="inlineStr">
         <is>
-          <t>TOTAL SCORE</t>
+          <t>GRADE</t>
         </is>
       </c>
       <c r="B25" s="10">
-        <f>SUM(F9:F22)</f>
+        <f>IF(B24&gt;=75,"A",IF(B24&gt;=60,"B",IF(B24&gt;=50,"C",IF(B24&gt;=45,"D",IF(B24&gt;=40,"E","F")))))</f>
         <v/>
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>AESTHETIC APPRECIATION</t>
+          <t>CREATIVITY</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1509,28 +1670,29 @@
       <c r="I25" s="5" t="n"/>
       <c r="K25" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L25" s="5" t="inlineStr">
         <is>
-          <t>75 - 100 (Excellent)</t>
+          <t>50 - 59 (Good)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="inlineStr">
         <is>
-          <t>Average Score</t>
-        </is>
-      </c>
-      <c r="B26" s="10">
-        <f>AVERAGE(F9:F22)</f>
-        <v/>
+          <t>POSITION IN CLASS</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>To be filled</t>
+        </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>ATTENDANCE</t>
+          <t>HONESTY</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1544,29 +1706,19 @@
       <c r="I26" s="5" t="n"/>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
         <is>
-          <t>60 - 74 (Very Good)</t>
+          <t>45 - 49 (Fair)</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="inlineStr">
-        <is>
-          <t>Position in Class</t>
-        </is>
-      </c>
-      <c r="B27" s="10" t="inlineStr">
-        <is>
-          <t>To be filled</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>CREATIVITY</t>
+          <t>INITIATIVE</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1580,21 +1732,19 @@
       <c r="I27" s="5" t="n"/>
       <c r="K27" s="5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
         <is>
-          <t>50 - 59 (Good)</t>
+          <t>40 - 44 (Weak)</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="n"/>
-      <c r="B28" s="10" t="n"/>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>HONESTY</t>
+          <t>LEADERSHIP</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -1608,19 +1758,19 @@
       <c r="I28" s="5" t="n"/>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
-          <t>45 - 49 (Fair)</t>
+          <t>0 - 39 (Poor)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>INITIATIVE</t>
+          <t>NEATNESS</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1632,21 +1782,11 @@
       <c r="G29" s="5" t="n"/>
       <c r="H29" s="5" t="n"/>
       <c r="I29" s="5" t="n"/>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>40 - 44 (Weak)</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>LEADERSHIP</t>
+          <t>OBEDIENCE</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
@@ -1658,21 +1798,11 @@
       <c r="G30" s="5" t="n"/>
       <c r="H30" s="5" t="n"/>
       <c r="I30" s="5" t="n"/>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>0 - 39 (Poor)</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>NEATNESS</t>
+          <t>PERSERVERANCE</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
@@ -1688,7 +1818,7 @@
     <row r="32">
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>OBEDIENCE</t>
+          <t>POLITENESS</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
@@ -1704,7 +1834,7 @@
     <row r="33">
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>PERSERVERANCE</t>
+          <t>SELF CONTROL</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
@@ -1720,7 +1850,7 @@
     <row r="34">
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>POLITENESS</t>
+          <t>SENSE OF RESPONSIBILITY</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
@@ -1736,7 +1866,7 @@
     <row r="35">
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>SELF CONTROL</t>
+          <t>SOCIABILITY</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
@@ -1752,7 +1882,7 @@
     <row r="36">
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>SENSE OF RESPONSIBILITY</t>
+          <t>SPIRIT OF COORDINATION</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
@@ -1765,64 +1895,64 @@
       <c r="H36" s="5" t="n"/>
       <c r="I36" s="5" t="n"/>
     </row>
-    <row r="37">
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>SOCIABILITY</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="n"/>
-      <c r="G37" s="5" t="n"/>
-      <c r="H37" s="5" t="n"/>
-      <c r="I37" s="5" t="n"/>
-    </row>
     <row r="38">
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>SPIRIT OF COORDINATION</t>
-        </is>
-      </c>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="5" t="n"/>
-      <c r="H38" s="5" t="n"/>
-      <c r="I38" s="5" t="n"/>
+      <c r="D38" s="6" t="inlineStr">
+        <is>
+          <t>PSYCHOMOTOR SKILLS</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="n"/>
+      <c r="G39" s="5" t="n"/>
+      <c r="H39" s="5" t="n"/>
+      <c r="I39" s="5" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="6" t="inlineStr">
-        <is>
-          <t>Psychomotor Skills</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H40" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I40" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>Craft</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="n"/>
+      <c r="G40" s="5" t="n"/>
+      <c r="H40" s="5" t="n"/>
+      <c r="I40" s="5" t="n"/>
     </row>
     <row r="41">
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>Communication Skills</t>
+          <t>Games/Sports</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
@@ -1838,7 +1968,7 @@
     <row r="42">
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>Craft</t>
+          <t>Handwriting</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
@@ -1854,7 +1984,7 @@
     <row r="43">
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>Games/Sports</t>
+          <t>Handling Of Tools</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
@@ -1870,7 +2000,7 @@
     <row r="44">
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>Handwriting</t>
+          <t>Musical Skills</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
@@ -1886,7 +2016,7 @@
     <row r="45">
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>Handling Of Tools</t>
+          <t>Painting/Drawing</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
@@ -1899,110 +2029,1349 @@
       <c r="H45" s="5" t="n"/>
       <c r="I45" s="5" t="n"/>
     </row>
-    <row r="46">
-      <c r="D46" s="5" t="inlineStr">
-        <is>
-          <t>Musical Skills</t>
-        </is>
-      </c>
-      <c r="E46" s="5" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F46" s="5" t="n"/>
-      <c r="G46" s="5" t="n"/>
-      <c r="H46" s="5" t="n"/>
-      <c r="I46" s="5" t="n"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="5" t="inlineStr">
-        <is>
-          <t>Painting/Drawing</t>
-        </is>
-      </c>
-      <c r="E47" s="5" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F47" s="5" t="n"/>
-      <c r="G47" s="5" t="n"/>
-      <c r="H47" s="5" t="n"/>
-      <c r="I47" s="5" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="inlineStr">
-        <is>
-          <t>Head Teacher's Remark:</t>
-        </is>
-      </c>
-      <c r="B49" s="11" t="n"/>
-      <c r="C49" s="11" t="n"/>
-      <c r="D49" s="11" t="n"/>
-      <c r="E49" s="11" t="n"/>
-      <c r="F49" s="11" t="n"/>
-      <c r="G49" s="11" t="n"/>
-      <c r="H49" s="11" t="n"/>
-      <c r="I49" s="11" t="n"/>
-      <c r="J49" s="11" t="n"/>
-      <c r="K49" s="11" t="n"/>
+    <row r="47" ht="22" customHeight="1">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>HEAD TEACHER'S REMARK:</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="n"/>
+      <c r="C47" s="12" t="n"/>
+      <c r="D47" s="12" t="n"/>
+      <c r="E47" s="12" t="n"/>
+      <c r="F47" s="12" t="n"/>
+      <c r="G47" s="12" t="n"/>
+      <c r="H47" s="12" t="n"/>
+      <c r="I47" s="12" t="n"/>
+      <c r="J47" s="12" t="n"/>
+      <c r="K47" s="12" t="n"/>
+      <c r="L47" s="9" t="n"/>
+    </row>
+    <row r="48" ht="22" customHeight="1">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>PARENT/GUARDIAN'S REMARK:</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="n"/>
+      <c r="C48" s="12" t="n"/>
+      <c r="D48" s="12" t="n"/>
+      <c r="E48" s="12" t="n"/>
+      <c r="F48" s="12" t="n"/>
+      <c r="G48" s="12" t="n"/>
+      <c r="H48" s="12" t="n"/>
+      <c r="I48" s="12" t="n"/>
+      <c r="J48" s="12" t="n"/>
+      <c r="K48" s="12" t="n"/>
+      <c r="L48" s="9" t="n"/>
+    </row>
+    <row r="49" ht="22" customHeight="1">
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>DATE:</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="n"/>
+      <c r="C49" s="12" t="n"/>
+      <c r="D49" s="12" t="n"/>
+      <c r="E49" s="12" t="n"/>
+      <c r="F49" s="12" t="n"/>
+      <c r="G49" s="12" t="n"/>
+      <c r="H49" s="12" t="n"/>
+      <c r="I49" s="12" t="n"/>
+      <c r="J49" s="12" t="n"/>
+      <c r="K49" s="12" t="n"/>
       <c r="L49" s="9" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="inlineStr">
-        <is>
-          <t>Parent/Guardian's Remark:</t>
-        </is>
-      </c>
-      <c r="B50" s="11" t="n"/>
-      <c r="C50" s="11" t="n"/>
-      <c r="D50" s="11" t="n"/>
-      <c r="E50" s="11" t="n"/>
-      <c r="F50" s="11" t="n"/>
-      <c r="G50" s="11" t="n"/>
-      <c r="H50" s="11" t="n"/>
-      <c r="I50" s="11" t="n"/>
-      <c r="J50" s="11" t="n"/>
-      <c r="K50" s="11" t="n"/>
-      <c r="L50" s="9" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="B51" s="11" t="n"/>
-      <c r="C51" s="11" t="n"/>
-      <c r="D51" s="11" t="n"/>
-      <c r="E51" s="11" t="n"/>
-      <c r="F51" s="11" t="n"/>
-      <c r="G51" s="11" t="n"/>
-      <c r="H51" s="11" t="n"/>
-      <c r="I51" s="11" t="n"/>
-      <c r="J51" s="11" t="n"/>
-      <c r="K51" s="11" t="n"/>
-      <c r="L51" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A47:L47"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="B5:L5"/>
-    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K22:L22"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A48:L48"/>
+  </mergeCells>
+  <pageMargins left="0.3" right="0.3" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="1" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40.71" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TOPSTEPS ACADEMY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>SECOND TERM 2024/2025 SESSION ACADEMIC REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Student Name: </t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Admission No: </t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>STA/235</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Class: </t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>SS2</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Section: </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number In Class: </t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resumption Date: </t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>24-07-2025</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="20" customHeight="1"/>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>ACADEMIC PERFORMANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>SUBJECT</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>CA1 (20%)</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>CA2 (20%)</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>CA3 (20%)</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>EXAM (40%)</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>3RD TERM TOTAL</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>1ST TERM</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>2ND TERM</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>CUMULATIVE TOTAL</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>GRADE</t>
+        </is>
+      </c>
+      <c r="K8" s="6" t="inlineStr">
+        <is>
+          <t>POSITION</t>
+        </is>
+      </c>
+      <c r="L8" s="6" t="inlineStr">
+        <is>
+          <t>REMARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <f>B9+C9+D9+E9</f>
+        <v/>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <f>F9+G9+H9</f>
+        <v/>
+      </c>
+      <c r="J9" s="7">
+        <f>IF(F9&gt;=75,"A",IF(F9&gt;=60,"B",IF(F9&gt;=50,"C",IF(F9&gt;=45,"D",IF(F9&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="inlineStr"/>
+      <c r="L9" s="7">
+        <f>IF(J9="A","Excellent",IF(J9="B","Very Good",IF(J9="C","Good",IF(J9="D","Fair",IF(J9="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>ENGLISH LANGUAGE</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <f>B10+C10+D10+E10</f>
+        <v/>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <f>F10+G10+H10</f>
+        <v/>
+      </c>
+      <c r="J10" s="7">
+        <f>IF(F10&gt;=75,"A",IF(F10&gt;=60,"B",IF(F10&gt;=50,"C",IF(F10&gt;=45,"D",IF(F10&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="inlineStr"/>
+      <c r="L10" s="7">
+        <f>IF(J10="A","Excellent",IF(J10="B","Very Good",IF(J10="C","Good",IF(J10="D","Fair",IF(J10="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>PHONICS</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <f>B11+C11+D11+E11</f>
+        <v/>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f>F11+G11+H11</f>
+        <v/>
+      </c>
+      <c r="J11" s="7">
+        <f>IF(F11&gt;=75,"A",IF(F11&gt;=60,"B",IF(F11&gt;=50,"C",IF(F11&gt;=45,"D",IF(F11&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="inlineStr"/>
+      <c r="L11" s="7">
+        <f>IF(J11="A","Excellent",IF(J11="B","Very Good",IF(J11="C","Good",IF(J11="D","Fair",IF(J11="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>BASIC SCIENCE &amp; TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <f>B12+C12+D12+E12</f>
+        <v/>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <f>F12+G12+H12</f>
+        <v/>
+      </c>
+      <c r="J12" s="7">
+        <f>IF(F12&gt;=75,"A",IF(F12&gt;=60,"B",IF(F12&gt;=50,"C",IF(F12&gt;=45,"D",IF(F12&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="inlineStr"/>
+      <c r="L12" s="7">
+        <f>IF(J12="A","Excellent",IF(J12="B","Very Good",IF(J12="C","Good",IF(J12="D","Fair",IF(J12="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>NATIONAL VALUES</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f>B13+C13+D13+E13</f>
+        <v/>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f>F13+G13+H13</f>
+        <v/>
+      </c>
+      <c r="J13" s="7">
+        <f>IF(F13&gt;=75,"A",IF(F13&gt;=60,"B",IF(F13&gt;=50,"C",IF(F13&gt;=45,"D",IF(F13&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="inlineStr"/>
+      <c r="L13" s="7">
+        <f>IF(J13="A","Excellent",IF(J13="B","Very Good",IF(J13="C","Good",IF(J13="D","Fair",IF(J13="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>PRE-VOCATIONAL STUDIES</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <f>B14+C14+D14+E14</f>
+        <v/>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <f>F14+G14+H14</f>
+        <v/>
+      </c>
+      <c r="J14" s="7">
+        <f>IF(F14&gt;=75,"A",IF(F14&gt;=60,"B",IF(F14&gt;=50,"C",IF(F14&gt;=45,"D",IF(F14&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="inlineStr"/>
+      <c r="L14" s="7">
+        <f>IF(J14="A","Excellent",IF(J14="B","Very Good",IF(J14="C","Good",IF(J14="D","Fair",IF(J14="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>RELIGIOUS STUDIES (C.R.S/I.R.S)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <f>B15+C15+D15+E15</f>
+        <v/>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <f>F15+G15+H15</f>
+        <v/>
+      </c>
+      <c r="J15" s="7">
+        <f>IF(F15&gt;=75,"A",IF(F15&gt;=60,"B",IF(F15&gt;=50,"C",IF(F15&gt;=45,"D",IF(F15&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="inlineStr"/>
+      <c r="L15" s="7">
+        <f>IF(J15="A","Excellent",IF(J15="B","Very Good",IF(J15="C","Good",IF(J15="D","Fair",IF(J15="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>C.C.A</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <f>B16+C16+D16+E16</f>
+        <v/>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f>F16+G16+H16</f>
+        <v/>
+      </c>
+      <c r="J16" s="7">
+        <f>IF(F16&gt;=75,"A",IF(F16&gt;=60,"B",IF(F16&gt;=50,"C",IF(F16&gt;=45,"D",IF(F16&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="inlineStr"/>
+      <c r="L16" s="7">
+        <f>IF(J16="A","Excellent",IF(J16="B","Very Good",IF(J16="C","Good",IF(J16="D","Fair",IF(J16="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>HISTORY</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <f>B17+C17+D17+E17</f>
+        <v/>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <f>F17+G17+H17</f>
+        <v/>
+      </c>
+      <c r="J17" s="7">
+        <f>IF(F17&gt;=75,"A",IF(F17&gt;=60,"B",IF(F17&gt;=50,"C",IF(F17&gt;=45,"D",IF(F17&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="inlineStr"/>
+      <c r="L17" s="7">
+        <f>IF(J17="A","Excellent",IF(J17="B","Very Good",IF(J17="C","Good",IF(J17="D","Fair",IF(J17="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>NIGERIAN LANGUAGE (HAUSA)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f>B18+C18+D18+E18</f>
+        <v/>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <f>F18+G18+H18</f>
+        <v/>
+      </c>
+      <c r="J18" s="7">
+        <f>IF(F18&gt;=75,"A",IF(F18&gt;=60,"B",IF(F18&gt;=50,"C",IF(F18&gt;=45,"D",IF(F18&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="inlineStr"/>
+      <c r="L18" s="7">
+        <f>IF(J18="A","Excellent",IF(J18="B","Very Good",IF(J18="C","Good",IF(J18="D","Fair",IF(J18="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>FRENCH</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <f>B19+C19+D19+E19</f>
+        <v/>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <f>F19+G19+H19</f>
+        <v/>
+      </c>
+      <c r="J19" s="7">
+        <f>IF(F19&gt;=75,"A",IF(F19&gt;=60,"B",IF(F19&gt;=50,"C",IF(F19&gt;=45,"D",IF(F19&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="inlineStr"/>
+      <c r="L19" s="7">
+        <f>IF(J19="A","Excellent",IF(J19="B","Very Good",IF(J19="C","Good",IF(J19="D","Fair",IF(J19="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>HAND WRITING</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <f>B20+C20+D20+E20</f>
+        <v/>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <f>F20+G20+H20</f>
+        <v/>
+      </c>
+      <c r="J20" s="7">
+        <f>IF(F20&gt;=75,"A",IF(F20&gt;=60,"B",IF(F20&gt;=50,"C",IF(F20&gt;=45,"D",IF(F20&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="inlineStr"/>
+      <c r="L20" s="7">
+        <f>IF(J20="A","Excellent",IF(J20="B","Very Good",IF(J20="C","Good",IF(J20="D","Fair",IF(J20="E","Weak","Poor")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>EFFORT</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" s="6" t="inlineStr">
+        <is>
+          <t>Grading Scale (Legend)</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="inlineStr">
+        <is>
+          <t>TOTAL SCORE</t>
+        </is>
+      </c>
+      <c r="B23" s="10">
+        <f>SUM(F9:F20)</f>
+        <v/>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>AESTHETIC APPRECIATION</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
+      <c r="H23" s="5" t="n"/>
+      <c r="I23" s="5" t="n"/>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
+        <is>
+          <t>75 - 100 (Excellent)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>AVERAGE SCORE</t>
+        </is>
+      </c>
+      <c r="B24" s="10">
+        <f>AVERAGE(F9:F20)</f>
+        <v/>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>ATTENDANCE</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="5" t="n"/>
+      <c r="I24" s="5" t="n"/>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L24" s="5" t="inlineStr">
+        <is>
+          <t>60 - 74 (Very Good)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="inlineStr">
+        <is>
+          <t>GRADE</t>
+        </is>
+      </c>
+      <c r="B25" s="10">
+        <f>IF(B24&gt;=75,"A",IF(B24&gt;=60,"B",IF(B24&gt;=50,"C",IF(B24&gt;=45,"D",IF(B24&gt;=40,"E","F")))))</f>
+        <v/>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>CREATIVITY</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
+      <c r="H25" s="5" t="n"/>
+      <c r="I25" s="5" t="n"/>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>50 - 59 (Good)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="inlineStr">
+        <is>
+          <t>POSITION IN CLASS</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>To be filled</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>HONESTY</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
+      <c r="H26" s="5" t="n"/>
+      <c r="I26" s="5" t="n"/>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>45 - 49 (Fair)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>INITIATIVE</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+      <c r="H27" s="5" t="n"/>
+      <c r="I27" s="5" t="n"/>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>40 - 44 (Weak)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>LEADERSHIP</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+      <c r="H28" s="5" t="n"/>
+      <c r="I28" s="5" t="n"/>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>0 - 39 (Poor)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>NEATNESS</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+      <c r="H29" s="5" t="n"/>
+      <c r="I29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>OBEDIENCE</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="n"/>
+      <c r="G30" s="5" t="n"/>
+      <c r="H30" s="5" t="n"/>
+      <c r="I30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>PERSERVERANCE</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="n"/>
+      <c r="G31" s="5" t="n"/>
+      <c r="H31" s="5" t="n"/>
+      <c r="I31" s="5" t="n"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>POLITENESS</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="n"/>
+      <c r="G32" s="5" t="n"/>
+      <c r="H32" s="5" t="n"/>
+      <c r="I32" s="5" t="n"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>SELF CONTROL</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="n"/>
+      <c r="G33" s="5" t="n"/>
+      <c r="H33" s="5" t="n"/>
+      <c r="I33" s="5" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>SENSE OF RESPONSIBILITY</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="n"/>
+      <c r="G34" s="5" t="n"/>
+      <c r="H34" s="5" t="n"/>
+      <c r="I34" s="5" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>SOCIABILITY</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="n"/>
+      <c r="G35" s="5" t="n"/>
+      <c r="H35" s="5" t="n"/>
+      <c r="I35" s="5" t="n"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>SPIRIT OF COORDINATION</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="n"/>
+      <c r="G36" s="5" t="n"/>
+      <c r="H36" s="5" t="n"/>
+      <c r="I36" s="5" t="n"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="6" t="inlineStr">
+        <is>
+          <t>PSYCHOMOTOR SKILLS</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="n"/>
+      <c r="G39" s="5" t="n"/>
+      <c r="H39" s="5" t="n"/>
+      <c r="I39" s="5" t="n"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>Craft</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="n"/>
+      <c r="G40" s="5" t="n"/>
+      <c r="H40" s="5" t="n"/>
+      <c r="I40" s="5" t="n"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>Games/Sports</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="n"/>
+      <c r="G41" s="5" t="n"/>
+      <c r="H41" s="5" t="n"/>
+      <c r="I41" s="5" t="n"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>Handwriting</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="n"/>
+      <c r="G42" s="5" t="n"/>
+      <c r="H42" s="5" t="n"/>
+      <c r="I42" s="5" t="n"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>Handling Of Tools</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="n"/>
+      <c r="G43" s="5" t="n"/>
+      <c r="H43" s="5" t="n"/>
+      <c r="I43" s="5" t="n"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>Musical Skills</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="n"/>
+      <c r="G44" s="5" t="n"/>
+      <c r="H44" s="5" t="n"/>
+      <c r="I44" s="5" t="n"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>Painting/Drawing</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="n"/>
+      <c r="G45" s="5" t="n"/>
+      <c r="H45" s="5" t="n"/>
+      <c r="I45" s="5" t="n"/>
+    </row>
+    <row r="47" ht="22" customHeight="1">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>HEAD TEACHER'S REMARK:</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="n"/>
+      <c r="C47" s="12" t="n"/>
+      <c r="D47" s="12" t="n"/>
+      <c r="E47" s="12" t="n"/>
+      <c r="F47" s="12" t="n"/>
+      <c r="G47" s="12" t="n"/>
+      <c r="H47" s="12" t="n"/>
+      <c r="I47" s="12" t="n"/>
+      <c r="J47" s="12" t="n"/>
+      <c r="K47" s="12" t="n"/>
+      <c r="L47" s="9" t="n"/>
+    </row>
+    <row r="48" ht="22" customHeight="1">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>PARENT/GUARDIAN'S REMARK:</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="n"/>
+      <c r="C48" s="12" t="n"/>
+      <c r="D48" s="12" t="n"/>
+      <c r="E48" s="12" t="n"/>
+      <c r="F48" s="12" t="n"/>
+      <c r="G48" s="12" t="n"/>
+      <c r="H48" s="12" t="n"/>
+      <c r="I48" s="12" t="n"/>
+      <c r="J48" s="12" t="n"/>
+      <c r="K48" s="12" t="n"/>
+      <c r="L48" s="9" t="n"/>
+    </row>
+    <row r="49" ht="22" customHeight="1">
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>DATE:</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="n"/>
+      <c r="C49" s="12" t="n"/>
+      <c r="D49" s="12" t="n"/>
+      <c r="E49" s="12" t="n"/>
+      <c r="F49" s="12" t="n"/>
+      <c r="G49" s="12" t="n"/>
+      <c r="H49" s="12" t="n"/>
+      <c r="I49" s="12" t="n"/>
+      <c r="J49" s="12" t="n"/>
+      <c r="K49" s="12" t="n"/>
+      <c r="L49" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A48:L48"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="1" fitToWidth="1"/>
